--- a/exel.xlsx
+++ b/exel.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,6 +391,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3213</v>
+      </c>
+      <c r="C3">
+        <v>31231</v>
       </c>
     </row>
   </sheetData>
